--- a/8 - Gravitation/8-05 - Einstein and the Gravitational Field.xlsx
+++ b/8 - Gravitation/8-05 - Einstein and the Gravitational Field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\8 - Gravitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84077E9C-30C3-4FAE-9314-CB0DAE434ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3300C3-F8D0-48FA-BDE8-3BE50FB5FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="3825" windowWidth="17340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gravity at 2X Sea Level" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Objective:</t>
   </si>
   <si>
-    <t>Calculate the strength of the earth’s gravitational field near sea level from Newton’s law of universal gravitation</t>
-  </si>
-  <si>
-    <t>and then calculate it at a distance twice as far from the center of the earth.</t>
-  </si>
-  <si>
     <t>Gravity</t>
   </si>
   <si>
@@ -96,6 +88,30 @@
   </si>
   <si>
     <t>Round (g)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Person Weight on Earth</t>
+  </si>
+  <si>
+    <t>Person Mass</t>
+  </si>
+  <si>
+    <t>Person weight with alternate gravity</t>
+  </si>
+  <si>
+    <t>Calculate the strength of the earth’s gravitational field near sea level</t>
+  </si>
+  <si>
+    <t>from Newton’s law of universal gravitation and then calculate it at</t>
+  </si>
+  <si>
+    <t>a distance twice as far from the center of the earth.</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -160,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -453,7 +470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,132 +479,179 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <f>5.98*POWER(10, 24)</f>
         <v>5.9800000000000005E+24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="D8">
         <f>6.38 *POWER(10, 6)</f>
         <v>6380000</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <f>6.67 * POWER(10, -11)</f>
         <v>6.67E-11</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <f>D6*D8/D7/D7</f>
-        <v>9.7990880592761478</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>D7*D9/D8/D8</f>
+        <v>9.7990880592761478</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3">
-        <f>D6*D8/D7/D7/C13/C13</f>
-        <v>2.4497720148190369</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <f>D7*D9/D8/D8/D14/D14</f>
+        <v>2.4497720148190369</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ROUND(D15,2)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <f>ROUND(D14,2)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
+      <c r="D19" s="1">
+        <v>800</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <f>D19/D13</f>
+        <v>81.640250109059181</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D20*D16</f>
+        <v>200.01861276719501</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/8 - Gravitation/8-05 - Einstein and the Gravitational Field.xlsx
+++ b/8 - Gravitation/8-05 - Einstein and the Gravitational Field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\8 - Gravitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3300C3-F8D0-48FA-BDE8-3BE50FB5FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2852A04-E406-4F02-B1A6-A091B26F95A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="3825" windowWidth="17340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="17340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gravity at 2X Sea Level" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Objective:</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Gravity at 2 X Sea Level</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Distance multiplier</t>
+  </si>
+  <si>
+    <t>Distance (m)</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>Distance (km)</t>
   </si>
 </sst>
 </file>
@@ -176,12 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -479,17 +489,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -573,85 +583,109 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D8*D14-D8</f>
+        <v>6380000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4">
+        <f>D15/1000</f>
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D17" s="3">
         <f>D7*D9/D8/D8/D14/D14</f>
         <v>2.4497720148190369</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <f>ROUND(D17,2)</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>800</v>
+      </c>
+      <c r="E21" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2">
-        <f>ROUND(D15,2)</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1">
-        <v>800</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20">
-        <f>D19/D13</f>
-        <v>81.640250109059181</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2">
-        <f>D20*D16</f>
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <f>D21/D13</f>
+        <v>81.640250109059181</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2">
+        <f>D22*D18</f>
         <v>200.01861276719501</v>
       </c>
-      <c r="E22" t="s">
-        <v>18</v>
+      <c r="E24" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/8 - Gravitation/8-05 - Einstein and the Gravitational Field.xlsx
+++ b/8 - Gravitation/8-05 - Einstein and the Gravitational Field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\K12-Physics-S1_SY2223\8 - Gravitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2852A04-E406-4F02-B1A6-A091B26F95A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6E40F-39C8-4410-8C7E-483F09CE4A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="17340" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Objective:</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Gravity at Sea Level</t>
   </si>
   <si>
-    <t>Gravity at 2 X Sea Level</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -108,19 +105,25 @@
     <t>a distance twice as far from the center of the earth.</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Distance multiplier</t>
-  </si>
-  <si>
-    <t>Distance (m)</t>
-  </si>
-  <si>
-    <t>dm</t>
-  </si>
-  <si>
-    <t>Distance (km)</t>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Distance X Sea Level multiplier</t>
+  </si>
+  <si>
+    <t>Distance at 2X Sea Level (m)</t>
+  </si>
+  <si>
+    <t>Gravity at 2X Sea Level</t>
+  </si>
+  <si>
+    <t>Distance at 2X Sea Level (km)</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -489,17 +492,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -583,45 +586,51 @@
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4">
         <f>D8*D14-D8</f>
         <v>6380000</v>
       </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D16" s="4">
         <f>D15/1000</f>
         <v>6380</v>
       </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -636,7 +645,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -652,21 +661,21 @@
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1">
         <v>800</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <f>D21/D13</f>
@@ -678,14 +687,14 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2">
         <f>D22*D18</f>
         <v>200.01861276719501</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
